--- a/Python_Samples/01-ParabolicMirror/ParabolicMirror_OoCalc.xlsx
+++ b/Python_Samples/01-ParabolicMirror/ParabolicMirror_OoCalc.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
   <si>
     <t xml:space="preserve">Parabolic Mirror</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t xml:space="preserve">Interval=</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The link could not be updated.</t>
   </si>
   <si>
     <t xml:space="preserve">end</t>
@@ -158,7 +161,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -181,18 +184,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF696969"/>
         <bgColor rgb="FF808080"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF8FAADC"/>
-        <bgColor rgb="FF969696"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDEEBF7"/>
-        <bgColor rgb="FFCCFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -279,7 +270,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -372,14 +363,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -407,10 +390,10 @@
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFC0C0C0"/>
       <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF8FAADC"/>
+      <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFDEEBF7"/>
+      <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
@@ -511,13 +494,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>551520</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>77400</xdr:rowOff>
+      <xdr:rowOff>76680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>428760</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>133200</xdr:rowOff>
+      <xdr:rowOff>132480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -526,7 +509,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="716040" y="1111320"/>
+          <a:off x="716040" y="1110600"/>
           <a:ext cx="3487320" cy="2474280"/>
         </a:xfrm>
         <a:prstGeom prst="blockArc">
@@ -1091,13 +1074,13 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>407160</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>181080</xdr:rowOff>
+      <xdr:rowOff>181440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>311040</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>77040</xdr:rowOff>
+      <xdr:rowOff>77400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1105,12 +1088,12 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId4"/>
+        <a:blip r:embed=""/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5791320" y="657720"/>
+          <a:off x="5791320" y="658080"/>
           <a:ext cx="4235760" cy="2314800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1971,11 +1954,8 @@
       <c r="L20" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="M20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" s="0" t="n">
-        <v>135</v>
+      <c r="M20" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="O20" s="7"/>
       <c r="P20" s="8"/>
@@ -2009,12 +1989,6 @@
       <c r="L21" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="M21" s="0" t="n">
-        <v>21</v>
-      </c>
-      <c r="N21" s="0" t="n">
-        <v>108</v>
-      </c>
       <c r="O21" s="7"/>
       <c r="P21" s="8"/>
       <c r="Q21" s="4" t="n">
@@ -2047,12 +2021,6 @@
       <c r="L22" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="M22" s="0" t="n">
-        <v>42</v>
-      </c>
-      <c r="N22" s="0" t="n">
-        <v>84</v>
-      </c>
       <c r="O22" s="7"/>
       <c r="P22" s="8"/>
       <c r="Q22" s="4" t="n">
@@ -2085,12 +2053,6 @@
       <c r="L23" s="14" t="n">
         <v>4</v>
       </c>
-      <c r="M23" s="0" t="n">
-        <v>63</v>
-      </c>
-      <c r="N23" s="0" t="n">
-        <v>63</v>
-      </c>
       <c r="O23" s="7"/>
       <c r="P23" s="8"/>
       <c r="Q23" s="4" t="n">
@@ -2123,12 +2085,6 @@
       <c r="L24" s="14" t="n">
         <v>5</v>
       </c>
-      <c r="M24" s="0" t="n">
-        <v>84</v>
-      </c>
-      <c r="N24" s="0" t="n">
-        <v>45</v>
-      </c>
       <c r="O24" s="7"/>
       <c r="P24" s="8"/>
       <c r="Q24" s="4" t="n">
@@ -2160,12 +2116,6 @@
       <c r="L25" s="14" t="n">
         <v>6</v>
       </c>
-      <c r="M25" s="0" t="n">
-        <v>105</v>
-      </c>
-      <c r="N25" s="0" t="n">
-        <v>30</v>
-      </c>
       <c r="O25" s="7"/>
       <c r="P25" s="8"/>
       <c r="Q25" s="4" t="n">
@@ -2198,12 +2148,6 @@
       <c r="L26" s="14" t="n">
         <v>7</v>
       </c>
-      <c r="M26" s="0" t="n">
-        <v>126</v>
-      </c>
-      <c r="N26" s="0" t="n">
-        <v>18</v>
-      </c>
       <c r="O26" s="7"/>
       <c r="P26" s="8"/>
       <c r="Q26" s="4" t="n">
@@ -2236,12 +2180,6 @@
       <c r="L27" s="14" t="n">
         <v>8</v>
       </c>
-      <c r="M27" s="0" t="n">
-        <v>147</v>
-      </c>
-      <c r="N27" s="0" t="n">
-        <v>9</v>
-      </c>
       <c r="O27" s="7"/>
       <c r="P27" s="8"/>
       <c r="Q27" s="4" t="n">
@@ -2274,12 +2212,6 @@
       <c r="L28" s="14" t="n">
         <v>9</v>
       </c>
-      <c r="M28" s="0" t="n">
-        <v>168</v>
-      </c>
-      <c r="N28" s="0" t="n">
-        <v>3</v>
-      </c>
       <c r="O28" s="7"/>
       <c r="P28" s="8"/>
       <c r="Q28" s="4" t="n">
@@ -2312,12 +2244,6 @@
       <c r="L29" s="14" t="n">
         <v>10</v>
       </c>
-      <c r="M29" s="0" t="n">
-        <v>189</v>
-      </c>
-      <c r="N29" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="O29" s="7"/>
       <c r="P29" s="8"/>
       <c r="Q29" s="4" t="n">
@@ -2350,12 +2276,6 @@
       <c r="L30" s="14" t="n">
         <v>11</v>
       </c>
-      <c r="M30" s="0" t="n">
-        <v>211</v>
-      </c>
-      <c r="N30" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="O30" s="7"/>
       <c r="P30" s="8"/>
       <c r="Q30" s="4" t="n">
@@ -2388,12 +2308,6 @@
       <c r="L31" s="14" t="n">
         <v>12</v>
       </c>
-      <c r="M31" s="0" t="n">
-        <v>232</v>
-      </c>
-      <c r="N31" s="0" t="n">
-        <v>3</v>
-      </c>
       <c r="O31" s="7"/>
       <c r="P31" s="8"/>
       <c r="Q31" s="4" t="n">
@@ -2426,12 +2340,6 @@
       <c r="L32" s="14" t="n">
         <v>13</v>
       </c>
-      <c r="M32" s="0" t="n">
-        <v>253</v>
-      </c>
-      <c r="N32" s="0" t="n">
-        <v>9</v>
-      </c>
       <c r="O32" s="7"/>
       <c r="P32" s="8"/>
       <c r="Q32" s="4" t="n">
@@ -2464,12 +2372,6 @@
       <c r="L33" s="14" t="n">
         <v>14</v>
       </c>
-      <c r="M33" s="0" t="n">
-        <v>274</v>
-      </c>
-      <c r="N33" s="0" t="n">
-        <v>18</v>
-      </c>
       <c r="O33" s="7"/>
       <c r="P33" s="8"/>
       <c r="Q33" s="4" t="n">
@@ -2502,12 +2404,6 @@
       <c r="L34" s="14" t="n">
         <v>15</v>
       </c>
-      <c r="M34" s="0" t="n">
-        <v>295</v>
-      </c>
-      <c r="N34" s="0" t="n">
-        <v>30</v>
-      </c>
       <c r="O34" s="7"/>
       <c r="P34" s="8"/>
       <c r="Q34" s="4" t="n">
@@ -2540,12 +2436,6 @@
       <c r="L35" s="14" t="n">
         <v>16</v>
       </c>
-      <c r="M35" s="0" t="n">
-        <v>316</v>
-      </c>
-      <c r="N35" s="0" t="n">
-        <v>45</v>
-      </c>
       <c r="O35" s="7"/>
       <c r="P35" s="8"/>
       <c r="Q35" s="4" t="n">
@@ -2578,12 +2468,6 @@
       <c r="L36" s="14" t="n">
         <v>17</v>
       </c>
-      <c r="M36" s="0" t="n">
-        <v>337</v>
-      </c>
-      <c r="N36" s="0" t="n">
-        <v>63</v>
-      </c>
       <c r="O36" s="7"/>
       <c r="P36" s="8"/>
       <c r="Q36" s="4" t="n">
@@ -2616,12 +2500,6 @@
       <c r="L37" s="14" t="n">
         <v>18</v>
       </c>
-      <c r="M37" s="0" t="n">
-        <v>358</v>
-      </c>
-      <c r="N37" s="0" t="n">
-        <v>84</v>
-      </c>
       <c r="O37" s="7"/>
       <c r="P37" s="8"/>
       <c r="Q37" s="4" t="n">
@@ -2654,12 +2532,6 @@
       <c r="L38" s="14" t="n">
         <v>19</v>
       </c>
-      <c r="M38" s="0" t="n">
-        <v>379</v>
-      </c>
-      <c r="N38" s="0" t="n">
-        <v>108</v>
-      </c>
       <c r="O38" s="7"/>
       <c r="P38" s="8"/>
       <c r="Q38" s="4" t="n">
@@ -2692,12 +2564,6 @@
       <c r="L39" s="14" t="n">
         <v>20</v>
       </c>
-      <c r="M39" s="0" t="n">
-        <v>400</v>
-      </c>
-      <c r="N39" s="0" t="n">
-        <v>135</v>
-      </c>
       <c r="O39" s="7"/>
       <c r="P39" s="8"/>
       <c r="Q39" s="4" t="n">
@@ -2748,7 +2614,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C41" s="17"/>
       <c r="D41" s="17"/>
@@ -2756,13 +2622,13 @@
       <c r="F41" s="17"/>
       <c r="G41" s="17"/>
       <c r="H41" s="18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I41" s="4" t="n">
         <v>40</v>
       </c>
       <c r="J41" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K41" s="17"/>
       <c r="L41" s="17"/>
@@ -2770,13 +2636,13 @@
       <c r="N41" s="17"/>
       <c r="O41" s="17"/>
       <c r="P41" s="18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q41" s="4" t="n">
         <v>40</v>
       </c>
       <c r="R41" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S41" s="17"/>
       <c r="T41" s="17"/>
@@ -2784,7 +2650,7 @@
       <c r="V41" s="17"/>
       <c r="W41" s="17"/>
       <c r="X41" s="18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -2828,7 +2694,7 @@
   <sheetData>
     <row r="3" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="20" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>2</v>
@@ -2836,18 +2702,18 @@
     </row>
     <row r="5" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="20" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2873,7 +2739,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="K10" activeCellId="0" sqref="K10"/>
@@ -2885,240 +2751,10 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="23"/>
-      <c r="B1" s="23"/>
-    </row>
-    <row r="2" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="24"/>
-    </row>
-    <row r="3" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="24" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="24"/>
-    </row>
-    <row r="4" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="24" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="24"/>
-    </row>
-    <row r="5" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="24" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="24"/>
-    </row>
-    <row r="6" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="24" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="24"/>
-    </row>
-    <row r="7" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="24" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="24"/>
-    </row>
-    <row r="8" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="24" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="24"/>
-    </row>
-    <row r="9" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="24" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="24"/>
-    </row>
-    <row r="10" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="24" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="24"/>
-    </row>
-    <row r="11" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="24" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" s="24"/>
-    </row>
-    <row r="12" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="24" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" s="24"/>
-    </row>
-    <row r="13" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="24" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" s="24"/>
-    </row>
-    <row r="14" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="24" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" s="24"/>
-    </row>
-    <row r="15" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="24" t="n">
+      <c r="A1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="24"/>
-    </row>
-    <row r="16" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="24" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" s="24"/>
-    </row>
-    <row r="17" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="24" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" s="24"/>
-    </row>
-    <row r="18" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="24" t="n">
-        <v>17</v>
-      </c>
-      <c r="B18" s="24"/>
-    </row>
-    <row r="19" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="24" t="n">
-        <v>18</v>
-      </c>
-      <c r="B19" s="24"/>
-    </row>
-    <row r="20" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="24" t="n">
-        <v>19</v>
-      </c>
-      <c r="B20" s="24"/>
-    </row>
-    <row r="21" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="24" t="n">
-        <v>20</v>
-      </c>
-      <c r="B21" s="24"/>
-    </row>
-    <row r="22" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="24" t="n">
-        <v>21</v>
-      </c>
-      <c r="B22" s="24"/>
-    </row>
-    <row r="23" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="24" t="n">
-        <v>22</v>
-      </c>
-      <c r="B23" s="24"/>
-    </row>
-    <row r="24" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="24" t="n">
-        <v>23</v>
-      </c>
-      <c r="B24" s="24"/>
-    </row>
-    <row r="25" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="24" t="n">
-        <v>24</v>
-      </c>
-      <c r="B25" s="24"/>
-    </row>
-    <row r="26" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="24" t="n">
-        <v>25</v>
-      </c>
-      <c r="B26" s="24"/>
-    </row>
-    <row r="27" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="24" t="n">
-        <v>26</v>
-      </c>
-      <c r="B27" s="24"/>
-    </row>
-    <row r="28" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="24" t="n">
-        <v>27</v>
-      </c>
-      <c r="B28" s="24"/>
-    </row>
-    <row r="29" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="24" t="n">
-        <v>28</v>
-      </c>
-      <c r="B29" s="24"/>
-    </row>
-    <row r="30" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="24" t="n">
-        <v>29</v>
-      </c>
-      <c r="B30" s="24"/>
-    </row>
-    <row r="31" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="24" t="n">
-        <v>30</v>
-      </c>
-      <c r="B31" s="24"/>
-    </row>
-    <row r="32" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="24" t="n">
-        <v>31</v>
-      </c>
-      <c r="B32" s="24"/>
-    </row>
-    <row r="33" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="24" t="n">
-        <v>32</v>
-      </c>
-      <c r="B33" s="24"/>
-    </row>
-    <row r="34" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="24" t="n">
-        <v>33</v>
-      </c>
-      <c r="B34" s="24"/>
-    </row>
-    <row r="35" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="24" t="n">
-        <v>34</v>
-      </c>
-      <c r="B35" s="24"/>
-    </row>
-    <row r="36" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="24" t="n">
-        <v>35</v>
-      </c>
-      <c r="B36" s="24"/>
-    </row>
-    <row r="37" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="24" t="n">
-        <v>36</v>
-      </c>
-      <c r="B37" s="24"/>
-    </row>
-    <row r="38" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="24" t="n">
-        <v>37</v>
-      </c>
-      <c r="B38" s="24"/>
-    </row>
-    <row r="39" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="24" t="n">
-        <v>38</v>
-      </c>
-      <c r="B39" s="24"/>
-    </row>
-    <row r="40" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="23"/>
-      <c r="B40" s="23"/>
+      <c r="B1" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Python_Samples/01-ParabolicMirror/ParabolicMirror_OoCalc.xlsx
+++ b/Python_Samples/01-ParabolicMirror/ParabolicMirror_OoCalc.xlsx
@@ -494,13 +494,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>551520</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>76680</xdr:rowOff>
+      <xdr:rowOff>75960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>428760</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>132480</xdr:rowOff>
+      <xdr:rowOff>131760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -509,7 +509,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="716040" y="1110600"/>
+          <a:off x="716040" y="1109880"/>
           <a:ext cx="3487320" cy="2474280"/>
         </a:xfrm>
         <a:prstGeom prst="blockArc">
@@ -1074,13 +1074,13 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>407160</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>181440</xdr:rowOff>
+      <xdr:rowOff>181800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>311040</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>77400</xdr:rowOff>
+      <xdr:rowOff>77760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1093,7 +1093,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5791320" y="658080"/>
+          <a:off x="5791320" y="658440"/>
           <a:ext cx="4235760" cy="2314800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1252,7 +1252,7 @@
   <dimension ref="A1:X41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Python_Samples/01-ParabolicMirror/ParabolicMirror_OoCalc.xlsx
+++ b/Python_Samples/01-ParabolicMirror/ParabolicMirror_OoCalc.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
   <si>
     <t xml:space="preserve">Parabolic Mirror</t>
   </si>
@@ -76,9 +76,6 @@
   </si>
   <si>
     <t xml:space="preserve">Interval=</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The link could not be updated.</t>
   </si>
   <si>
     <t xml:space="preserve">end</t>
@@ -161,7 +158,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -184,6 +181,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF696969"/>
         <bgColor rgb="FF808080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8FAADC"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDEEBF7"/>
+        <bgColor rgb="FFCCFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -270,7 +279,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -363,6 +372,14 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -390,10 +407,10 @@
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFC0C0C0"/>
       <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF8FAADC"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFDEEBF7"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
@@ -494,13 +511,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>551520</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>75960</xdr:rowOff>
+      <xdr:rowOff>75240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>428760</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>131760</xdr:rowOff>
+      <xdr:rowOff>131040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -509,7 +526,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="716040" y="1109880"/>
+          <a:off x="716040" y="1109160"/>
           <a:ext cx="3487320" cy="2474280"/>
         </a:xfrm>
         <a:prstGeom prst="blockArc">
@@ -1074,13 +1091,13 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>407160</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>181800</xdr:rowOff>
+      <xdr:rowOff>182160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>311040</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>77760</xdr:rowOff>
+      <xdr:rowOff>78120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1088,12 +1105,12 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed=""/>
+        <a:blip r:embed="rId4"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5791320" y="658440"/>
+          <a:off x="5791320" y="658800"/>
           <a:ext cx="4235760" cy="2314800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1252,7 +1269,7 @@
   <dimension ref="A1:X41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
+      <selection pane="topLeft" activeCell="P26" activeCellId="0" sqref="P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1954,8 +1971,11 @@
       <c r="L20" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="M20" s="0" t="s">
-        <v>14</v>
+      <c r="M20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" s="0" t="n">
+        <v>96</v>
       </c>
       <c r="O20" s="7"/>
       <c r="P20" s="8"/>
@@ -1989,6 +2009,12 @@
       <c r="L21" s="14" t="n">
         <v>2</v>
       </c>
+      <c r="M21" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="N21" s="0" t="n">
+        <v>77</v>
+      </c>
       <c r="O21" s="7"/>
       <c r="P21" s="8"/>
       <c r="Q21" s="4" t="n">
@@ -2021,6 +2047,12 @@
       <c r="L22" s="14" t="n">
         <v>3</v>
       </c>
+      <c r="M22" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="N22" s="0" t="n">
+        <v>60</v>
+      </c>
       <c r="O22" s="7"/>
       <c r="P22" s="8"/>
       <c r="Q22" s="4" t="n">
@@ -2053,6 +2085,12 @@
       <c r="L23" s="14" t="n">
         <v>4</v>
       </c>
+      <c r="M23" s="0" t="n">
+        <v>71</v>
+      </c>
+      <c r="N23" s="0" t="n">
+        <v>45</v>
+      </c>
       <c r="O23" s="7"/>
       <c r="P23" s="8"/>
       <c r="Q23" s="4" t="n">
@@ -2085,6 +2123,12 @@
       <c r="L24" s="14" t="n">
         <v>5</v>
       </c>
+      <c r="M24" s="0" t="n">
+        <v>95</v>
+      </c>
+      <c r="N24" s="0" t="n">
+        <v>32</v>
+      </c>
       <c r="O24" s="7"/>
       <c r="P24" s="8"/>
       <c r="Q24" s="4" t="n">
@@ -2116,6 +2160,12 @@
       <c r="L25" s="14" t="n">
         <v>6</v>
       </c>
+      <c r="M25" s="0" t="n">
+        <v>118</v>
+      </c>
+      <c r="N25" s="0" t="n">
+        <v>22</v>
+      </c>
       <c r="O25" s="7"/>
       <c r="P25" s="8"/>
       <c r="Q25" s="4" t="n">
@@ -2148,6 +2198,12 @@
       <c r="L26" s="14" t="n">
         <v>7</v>
       </c>
+      <c r="M26" s="0" t="n">
+        <v>142</v>
+      </c>
+      <c r="N26" s="0" t="n">
+        <v>13</v>
+      </c>
       <c r="O26" s="7"/>
       <c r="P26" s="8"/>
       <c r="Q26" s="4" t="n">
@@ -2180,6 +2236,12 @@
       <c r="L27" s="14" t="n">
         <v>8</v>
       </c>
+      <c r="M27" s="0" t="n">
+        <v>166</v>
+      </c>
+      <c r="N27" s="0" t="n">
+        <v>7</v>
+      </c>
       <c r="O27" s="7"/>
       <c r="P27" s="8"/>
       <c r="Q27" s="4" t="n">
@@ -2212,6 +2274,12 @@
       <c r="L28" s="14" t="n">
         <v>9</v>
       </c>
+      <c r="M28" s="0" t="n">
+        <v>189</v>
+      </c>
+      <c r="N28" s="0" t="n">
+        <v>2</v>
+      </c>
       <c r="O28" s="7"/>
       <c r="P28" s="8"/>
       <c r="Q28" s="4" t="n">
@@ -2244,6 +2312,12 @@
       <c r="L29" s="14" t="n">
         <v>10</v>
       </c>
+      <c r="M29" s="0" t="n">
+        <v>213</v>
+      </c>
+      <c r="N29" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="O29" s="7"/>
       <c r="P29" s="8"/>
       <c r="Q29" s="4" t="n">
@@ -2276,6 +2350,12 @@
       <c r="L30" s="14" t="n">
         <v>11</v>
       </c>
+      <c r="M30" s="0" t="n">
+        <v>237</v>
+      </c>
+      <c r="N30" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="O30" s="7"/>
       <c r="P30" s="8"/>
       <c r="Q30" s="4" t="n">
@@ -2308,6 +2388,12 @@
       <c r="L31" s="14" t="n">
         <v>12</v>
       </c>
+      <c r="M31" s="0" t="n">
+        <v>261</v>
+      </c>
+      <c r="N31" s="0" t="n">
+        <v>2</v>
+      </c>
       <c r="O31" s="7"/>
       <c r="P31" s="8"/>
       <c r="Q31" s="4" t="n">
@@ -2340,6 +2426,12 @@
       <c r="L32" s="14" t="n">
         <v>13</v>
       </c>
+      <c r="M32" s="0" t="n">
+        <v>284</v>
+      </c>
+      <c r="N32" s="0" t="n">
+        <v>7</v>
+      </c>
       <c r="O32" s="7"/>
       <c r="P32" s="8"/>
       <c r="Q32" s="4" t="n">
@@ -2372,6 +2464,12 @@
       <c r="L33" s="14" t="n">
         <v>14</v>
       </c>
+      <c r="M33" s="0" t="n">
+        <v>308</v>
+      </c>
+      <c r="N33" s="0" t="n">
+        <v>13</v>
+      </c>
       <c r="O33" s="7"/>
       <c r="P33" s="8"/>
       <c r="Q33" s="4" t="n">
@@ -2404,6 +2502,12 @@
       <c r="L34" s="14" t="n">
         <v>15</v>
       </c>
+      <c r="M34" s="0" t="n">
+        <v>332</v>
+      </c>
+      <c r="N34" s="0" t="n">
+        <v>22</v>
+      </c>
       <c r="O34" s="7"/>
       <c r="P34" s="8"/>
       <c r="Q34" s="4" t="n">
@@ -2436,6 +2540,12 @@
       <c r="L35" s="14" t="n">
         <v>16</v>
       </c>
+      <c r="M35" s="0" t="n">
+        <v>355</v>
+      </c>
+      <c r="N35" s="0" t="n">
+        <v>32</v>
+      </c>
       <c r="O35" s="7"/>
       <c r="P35" s="8"/>
       <c r="Q35" s="4" t="n">
@@ -2468,6 +2578,12 @@
       <c r="L36" s="14" t="n">
         <v>17</v>
       </c>
+      <c r="M36" s="0" t="n">
+        <v>379</v>
+      </c>
+      <c r="N36" s="0" t="n">
+        <v>45</v>
+      </c>
       <c r="O36" s="7"/>
       <c r="P36" s="8"/>
       <c r="Q36" s="4" t="n">
@@ -2500,6 +2616,12 @@
       <c r="L37" s="14" t="n">
         <v>18</v>
       </c>
+      <c r="M37" s="0" t="n">
+        <v>403</v>
+      </c>
+      <c r="N37" s="0" t="n">
+        <v>60</v>
+      </c>
       <c r="O37" s="7"/>
       <c r="P37" s="8"/>
       <c r="Q37" s="4" t="n">
@@ -2532,6 +2654,12 @@
       <c r="L38" s="14" t="n">
         <v>19</v>
       </c>
+      <c r="M38" s="0" t="n">
+        <v>426</v>
+      </c>
+      <c r="N38" s="0" t="n">
+        <v>77</v>
+      </c>
       <c r="O38" s="7"/>
       <c r="P38" s="8"/>
       <c r="Q38" s="4" t="n">
@@ -2564,6 +2692,12 @@
       <c r="L39" s="14" t="n">
         <v>20</v>
       </c>
+      <c r="M39" s="0" t="n">
+        <v>450</v>
+      </c>
+      <c r="N39" s="0" t="n">
+        <v>96</v>
+      </c>
       <c r="O39" s="7"/>
       <c r="P39" s="8"/>
       <c r="Q39" s="4" t="n">
@@ -2614,7 +2748,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C41" s="17"/>
       <c r="D41" s="17"/>
@@ -2622,13 +2756,13 @@
       <c r="F41" s="17"/>
       <c r="G41" s="17"/>
       <c r="H41" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I41" s="4" t="n">
         <v>40</v>
       </c>
       <c r="J41" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K41" s="17"/>
       <c r="L41" s="17"/>
@@ -2636,13 +2770,13 @@
       <c r="N41" s="17"/>
       <c r="O41" s="17"/>
       <c r="P41" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q41" s="4" t="n">
         <v>40</v>
       </c>
       <c r="R41" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="S41" s="17"/>
       <c r="T41" s="17"/>
@@ -2650,7 +2784,7 @@
       <c r="V41" s="17"/>
       <c r="W41" s="17"/>
       <c r="X41" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -2694,7 +2828,7 @@
   <sheetData>
     <row r="3" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>2</v>
@@ -2702,18 +2836,18 @@
     </row>
     <row r="5" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="21" t="s">
         <v>17</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="21" t="s">
         <v>19</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2739,10 +2873,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K10" activeCellId="0" sqref="K10"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2751,10 +2885,240 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="23"/>
+      <c r="B1" s="23"/>
+    </row>
+    <row r="2" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="24"/>
+    </row>
+    <row r="3" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="24" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="24"/>
+    </row>
+    <row r="4" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="24" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="24"/>
+    </row>
+    <row r="5" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="24" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="24"/>
+    </row>
+    <row r="6" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="24" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="24"/>
+    </row>
+    <row r="7" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="24" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="24"/>
+    </row>
+    <row r="8" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="24" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="24"/>
+    </row>
+    <row r="9" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="24" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="24"/>
+    </row>
+    <row r="10" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="24" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="24"/>
+    </row>
+    <row r="11" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="24" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="24"/>
+    </row>
+    <row r="12" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="24" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="24"/>
+    </row>
+    <row r="13" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="24" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="24"/>
+    </row>
+    <row r="14" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="24" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="24"/>
+    </row>
+    <row r="15" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="24" t="n">
         <v>14</v>
       </c>
-      <c r="B1" s="0"/>
+      <c r="B15" s="24"/>
+    </row>
+    <row r="16" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="24" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="24"/>
+    </row>
+    <row r="17" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="24" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="24"/>
+    </row>
+    <row r="18" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="24" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="24"/>
+    </row>
+    <row r="19" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="24" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="24"/>
+    </row>
+    <row r="20" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="24" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="24"/>
+    </row>
+    <row r="21" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="24" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="24"/>
+    </row>
+    <row r="22" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="24" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="24"/>
+    </row>
+    <row r="23" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="24" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="24"/>
+    </row>
+    <row r="24" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="24"/>
+    </row>
+    <row r="25" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="24" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" s="24"/>
+    </row>
+    <row r="26" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="24" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" s="24"/>
+    </row>
+    <row r="27" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="24" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" s="24"/>
+    </row>
+    <row r="28" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="24" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" s="24"/>
+    </row>
+    <row r="29" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="24" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" s="24"/>
+    </row>
+    <row r="30" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="24" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" s="24"/>
+    </row>
+    <row r="31" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="24" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" s="24"/>
+    </row>
+    <row r="32" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="24" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" s="24"/>
+    </row>
+    <row r="33" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="24" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" s="24"/>
+    </row>
+    <row r="34" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="24" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" s="24"/>
+    </row>
+    <row r="35" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="24" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" s="24"/>
+    </row>
+    <row r="36" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="24" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" s="24"/>
+    </row>
+    <row r="37" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="24" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" s="24"/>
+    </row>
+    <row r="38" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="24" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" s="24"/>
+    </row>
+    <row r="39" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="24" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" s="24"/>
+    </row>
+    <row r="40" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="23"/>
+      <c r="B40" s="23"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Python_Samples/01-ParabolicMirror/ParabolicMirror_OoCalc.xlsx
+++ b/Python_Samples/01-ParabolicMirror/ParabolicMirror_OoCalc.xlsx
@@ -8,9 +8,9 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="mirror" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="setup" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="DATA" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="mirror" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="setup" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="DATA" sheetId="3" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" name="rngLength" vbProcedure="false">mirror!$C$10</definedName>
@@ -20,9 +20,6 @@
     <definedName function="false" hidden="false" name="rngTable" vbProcedure="false">mirror!$M$20</definedName>
     <definedName function="false" hidden="false" name="rngXmax" vbProcedure="false">mirror!$C$7</definedName>
     <definedName function="false" hidden="false" name="rngYmax" vbProcedure="false">mirror!$C$8</definedName>
-    <definedName function="true" hidden="false" name="CALCPython.UpdateLinks" vbProcedure="true"/>
-    <definedName function="true" hidden="false" name="CALCPython.PythonCalculateShell" vbProcedure="true"/>
-    <definedName function="true" hidden="false" name="CALCPython.SaveAsXls" vbProcedure="true"/>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -185,13 +182,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF8FAADC"/>
+        <fgColor theme="4" tint="0.3999"/>
         <bgColor rgb="FF969696"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDEEBF7"/>
+        <fgColor theme="8" tint="0.7999"/>
         <bgColor rgb="FFCCFFFF"/>
       </patternFill>
     </fill>
@@ -452,12 +449,24 @@
 </styleSheet>
 </file>
 
+<file path=xl/ctrlProps/ctrlProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>554400</xdr:colOff>
+      <xdr:colOff>554040</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>77400</xdr:rowOff>
     </xdr:from>
@@ -465,7 +474,7 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>535320</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>35280</xdr:rowOff>
+      <xdr:rowOff>34920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -509,15 +518,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>551520</xdr:colOff>
+      <xdr:colOff>550800</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>75240</xdr:rowOff>
+      <xdr:rowOff>74160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>428760</xdr:colOff>
+      <xdr:colOff>428400</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>131040</xdr:rowOff>
+      <xdr:rowOff>129600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -526,7 +535,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="716040" y="1109160"/>
+          <a:off x="716040" y="1108440"/>
           <a:ext cx="3487320" cy="2474280"/>
         </a:xfrm>
         <a:prstGeom prst="blockArc">
@@ -557,15 +566,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>636480</xdr:colOff>
+      <xdr:colOff>636120</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>43920</xdr:rowOff>
+      <xdr:rowOff>43560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>430560</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>59400</xdr:rowOff>
+      <xdr:rowOff>59040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -602,7 +611,7 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>660960</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>138240</xdr:rowOff>
+      <xdr:rowOff>137880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
@@ -643,15 +652,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>52560</xdr:colOff>
+      <xdr:colOff>52200</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>23400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>499680</xdr:colOff>
+      <xdr:colOff>499320</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>92880</xdr:rowOff>
+      <xdr:rowOff>92520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -704,7 +713,7 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>671760</xdr:colOff>
+      <xdr:colOff>671400</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>104760</xdr:rowOff>
     </xdr:from>
@@ -773,7 +782,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>228240</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>145080</xdr:rowOff>
+      <xdr:rowOff>144720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -811,7 +820,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>147240</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>119160</xdr:rowOff>
+      <xdr:rowOff>118800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
@@ -858,9 +867,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>150480</xdr:colOff>
+      <xdr:colOff>150120</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>23760</xdr:rowOff>
+      <xdr:rowOff>23400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -913,13 +922,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>702000</xdr:colOff>
+      <xdr:colOff>701640</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>4680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>517320</xdr:colOff>
+      <xdr:colOff>516960</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>144360</xdr:rowOff>
     </xdr:to>
@@ -978,13 +987,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>88920</xdr:colOff>
+      <xdr:colOff>88560</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>34200</xdr:rowOff>
+      <xdr:rowOff>33840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>234000</xdr:colOff>
+      <xdr:colOff>233640</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>110160</xdr:rowOff>
     </xdr:to>
@@ -1015,13 +1024,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>87480</xdr:colOff>
+      <xdr:colOff>87120</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>81720</xdr:rowOff>
+      <xdr:rowOff>81360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>352080</xdr:colOff>
+      <xdr:colOff>351720</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>96840</xdr:rowOff>
     </xdr:to>
@@ -1052,15 +1061,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>470160</xdr:colOff>
+      <xdr:colOff>469800</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>163080</xdr:rowOff>
+      <xdr:rowOff>162720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>488160</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>114120</xdr:rowOff>
+      <xdr:rowOff>113760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1097,7 +1106,7 @@
       <xdr:col>15</xdr:col>
       <xdr:colOff>311040</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>78120</xdr:rowOff>
+      <xdr:rowOff>78480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1110,7 +1119,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5791320" y="658800"/>
+          <a:off x="5791320" y="659160"/>
           <a:ext cx="4235760" cy="2314800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1143,7 +1152,7 @@
         </xdr:to>
         <xdr:sp>
           <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name="cmdUpdateLinks" descr="3-Update Links" hidden="0"/>
+            <xdr:cNvPr id="1001" name="cmdUpdateLinks" descr="3-Update Links" hidden="0"/>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -1187,7 +1196,7 @@
         </xdr:to>
         <xdr:sp>
           <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name="cmdCompute" descr="2-Compute" hidden="0"/>
+            <xdr:cNvPr id="1002" name="cmdCompute" descr="2-Compute" hidden="0"/>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -1231,7 +1240,7 @@
         </xdr:to>
         <xdr:sp>
           <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name="cmdSaveXLSX" descr="1-Save to XLSX" hidden="0"/>
+            <xdr:cNvPr id="1003" name="cmdSaveXLSX" descr="1-Save to XLSX" hidden="0"/>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -1261,23 +1270,129 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:X41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P26" activeCellId="0" sqref="P26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="2.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="0" width="10.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="0" width="10.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="2.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="10" style="0" width="10.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="10" style="0" width="10.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="4.68"/>
   </cols>
   <sheetData>
@@ -1509,7 +1624,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="11" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>4</v>
@@ -1966,7 +2081,7 @@
       </c>
       <c r="K20" s="15" t="n">
         <f aca="false">+C7/20</f>
-        <v>22.5</v>
+        <v>15</v>
       </c>
       <c r="L20" s="14" t="n">
         <v>1</v>
@@ -2804,11 +2919,84 @@
     <brk id="8" man="true" max="65535" min="0"/>
   </colBreaks>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1001" r:id="rId3" name="cmdUpdateLinks">
+              <controlPr defaultSize="0" print="true" autoFill="0" autoPict="0" macro="CALCPython.UpdateLinks">
+                <anchor moveWithCells="true" sizeWithCells="false">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>533520</xdr:colOff>
+                    <xdr:row>1</xdr:row>
+                    <xdr:rowOff>231120</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>654120</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>183240</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1002" r:id="rId4" name="cmdCompute">
+              <controlPr defaultSize="0" print="true" autoFill="0" autoPict="0" macro="CALCPython.PythonCalculateShell">
+                <anchor moveWithCells="true" sizeWithCells="false">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>333720</xdr:colOff>
+                    <xdr:row>1</xdr:row>
+                    <xdr:rowOff>231120</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>433440</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>183240</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1003" r:id="rId5" name="cmdSaveXLSX">
+              <controlPr defaultSize="0" print="true" autoFill="0" autoPict="0" macro="CALCPython.SaveAsXls">
+                <anchor moveWithCells="true" sizeWithCells="false">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>3960</xdr:colOff>
+                    <xdr:row>1</xdr:row>
+                    <xdr:rowOff>244800</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>124560</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>10800</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -2820,10 +3008,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="19" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="19" width="25.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="19" width="117.85"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="19" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="19" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="19" width="25.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="19" width="117.97"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="19" width="11.53"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2869,7 +3057,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -2881,7 +3069,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="22" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="22" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Python_Samples/01-ParabolicMirror/ParabolicMirror_OoCalc.xlsx
+++ b/Python_Samples/01-ParabolicMirror/ParabolicMirror_OoCalc.xlsx
@@ -520,13 +520,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>550800</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>74160</xdr:rowOff>
+      <xdr:rowOff>73440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>428400</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>129600</xdr:rowOff>
+      <xdr:rowOff>128880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -535,7 +535,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="716040" y="1108440"/>
+          <a:off x="716040" y="1107720"/>
           <a:ext cx="3487320" cy="2474280"/>
         </a:xfrm>
         <a:prstGeom prst="blockArc">
@@ -1384,7 +1384,7 @@
   <dimension ref="A1:X41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1624,7 +1624,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="11" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>4</v>
@@ -2081,7 +2081,7 @@
       </c>
       <c r="K20" s="15" t="n">
         <f aca="false">+C7/20</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L20" s="14" t="n">
         <v>1</v>
